--- a/SRC/Research results sample - texts (books, movies, songs...) February 2017ff.xlsx
+++ b/SRC/Research results sample - texts (books, movies, songs...) February 2017ff.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mira\Dropbox\Lesewelten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HALmob/Documents/gits/ReadingData/SRC/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="23040" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,14 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -970,6 +978,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">In the home of Jiang Dingyue </t>
@@ -988,6 +997,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>'s anonymous freind</t>
@@ -1607,6 +1617,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>He Zhaowu 2011; Wu Hong 2012: 116-119</t>
@@ -1625,6 +1636,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Deng Gang 2009: 372</t>
@@ -1643,6 +1655,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Yan Lianke 2009: 390; Zhang Langlang 1999:46</t>
@@ -1657,6 +1670,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>CW; GF</t>
@@ -1675,6 +1689,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>JH; YC</t>
@@ -1710,6 +1725,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Zhang Langlang</t>
@@ -2566,6 +2582,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Han Shaogong 2009: 572; Zhang Langlang 1999:37</t>
@@ -2889,6 +2906,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Zhang Langlang </t>
@@ -3340,8 +3358,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Calibri"/>
-        <family val="38"/>
-        <charset val="136"/>
+        <family val="2"/>
       </rPr>
       <t>·</t>
     </r>
@@ -3387,8 +3404,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Calibri"/>
-        <family val="38"/>
-        <charset val="136"/>
+        <family val="2"/>
       </rPr>
       <t>·</t>
     </r>
@@ -4405,6 +4421,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Peng Gang through Xu Haoyuan </t>
@@ -4423,6 +4440,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">; Wu Hong through private channels </t>
@@ -4441,6 +4459,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Han Shaogong 2009: 580;Zhang Langlang's father bought the book</t>
@@ -4458,6 +4477,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>OS; GF</t>
@@ -4476,6 +4496,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>JH; YC</t>
@@ -7256,6 +7277,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">“On the mountain again: “This time it was true solitude. My only companions during those long, lonely nights were characters from books. Whenever I felt empty and frightened, whenever my courage deserted me, I tried to imagine myself in their midst. Too bad it didn’t do much good. I even turned to Romain Rolland’s </t>
@@ -7266,7 +7288,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Life of Beethoven</t>
     </r>
@@ -7275,6 +7297,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> for inspiration, copying memorized passages into my notebook.”</t>
@@ -7395,6 +7418,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>·</t>
@@ -7413,6 +7437,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>·</t>
@@ -7448,6 +7473,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">According to Wang Shiqiang's research, this piece was one of the most influential yellow-covered books for the generation of pre-''misty'' poets. Translated by Shi Xianrong </t>
@@ -7466,6 +7492,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>; Chen reports that this was popular among underground circles in Beijing ; the reader(Zhang Langlang)had copied half of the book by hand.</t>
@@ -7858,6 +7885,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">The people from "yidasanfan (One Strike-Three Anti Campaign)" work team confiscated his </t>
@@ -7868,7 +7896,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Shuihu</t>
     </r>
@@ -7877,6 +7905,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>, for it was considered as feudalistic book.</t>
@@ -11550,13 +11579,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mmm\-yy"/>
     <numFmt numFmtId="165" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -11589,20 +11618,20 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11.5"/>
@@ -11614,7 +11643,7 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -11632,12 +11661,12 @@
       <sz val="12"/>
       <color indexed="10"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -11655,51 +11684,51 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial Unicode MS"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="49"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="60"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12.1"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -11761,16 +11790,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11890,7 +11919,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1"/>
     <cellStyle name="一般" xfId="3"/>
     <cellStyle name="一般 2" xfId="5"/>
@@ -12245,35 +12274,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC661"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A641" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I641" sqref="I641"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.125" style="1"/>
-    <col min="4" max="5" width="18.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.125" style="1"/>
-    <col min="11" max="11" width="10.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.1640625" style="1"/>
+    <col min="4" max="5" width="18.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="1"/>
+    <col min="11" max="11" width="10.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="22" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="47.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="22.375" style="1" customWidth="1"/>
-    <col min="17" max="19" width="9.125" style="1"/>
-    <col min="20" max="20" width="11.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9.125" style="1"/>
-    <col min="22" max="22" width="20.375" style="1" customWidth="1"/>
-    <col min="23" max="16383" width="9.125" style="1"/>
+    <col min="14" max="14" width="14.1640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="47.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="22.33203125" style="1" customWidth="1"/>
+    <col min="17" max="19" width="9.1640625" style="1"/>
+    <col min="20" max="20" width="11.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.1640625" style="1"/>
+    <col min="22" max="22" width="20.33203125" style="1" customWidth="1"/>
+    <col min="23" max="16383" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>187</v>
       </c>
@@ -12374,7 +12403,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -12408,7 +12437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -12443,7 +12472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -12478,7 +12507,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -12513,7 +12542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -12548,7 +12577,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -12583,7 +12612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -12618,7 +12647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -12653,7 +12682,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -12688,7 +12717,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -12729,7 +12758,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="15.75">
+    <row r="12" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -12755,7 +12784,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
@@ -12805,7 +12834,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>66</v>
       </c>
@@ -12832,7 +12861,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>72</v>
       </c>
@@ -12901,7 +12930,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>90</v>
       </c>
@@ -12936,7 +12965,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="15.75">
+    <row r="17" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>97</v>
       </c>
@@ -12965,7 +12994,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>105</v>
       </c>
@@ -13003,7 +13032,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>114</v>
       </c>
@@ -13059,7 +13088,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>131</v>
       </c>
@@ -13103,7 +13132,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>131</v>
       </c>
@@ -13141,7 +13170,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>131</v>
       </c>
@@ -13176,7 +13205,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>131</v>
       </c>
@@ -13217,7 +13246,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>161</v>
       </c>
@@ -13246,7 +13275,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>168</v>
       </c>
@@ -13284,7 +13313,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>174</v>
       </c>
@@ -13337,7 +13366,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>218</v>
       </c>
@@ -13369,7 +13398,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>218</v>
       </c>
@@ -13398,7 +13427,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>226</v>
       </c>
@@ -13427,7 +13456,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>234</v>
       </c>
@@ -13468,7 +13497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>241</v>
       </c>
@@ -13503,7 +13532,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>250</v>
       </c>
@@ -13532,7 +13561,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="15.75">
+    <row r="33" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>258</v>
       </c>
@@ -13558,7 +13587,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>263</v>
       </c>
@@ -13596,7 +13625,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>263</v>
       </c>
@@ -13622,7 +13651,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>263</v>
       </c>
@@ -13657,7 +13686,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="15.75">
+    <row r="37" spans="1:33" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>263</v>
       </c>
@@ -13691,7 +13720,7 @@
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>284</v>
       </c>
@@ -13751,7 +13780,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>284</v>
       </c>
@@ -13787,7 +13816,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="40" spans="1:33">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>284</v>
       </c>
@@ -13826,7 +13855,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="41" spans="1:33">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>309</v>
       </c>
@@ -13856,7 +13885,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:33">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>309</v>
       </c>
@@ -13894,7 +13923,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="1:33">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>324</v>
       </c>
@@ -13941,7 +13970,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="44" spans="1:33">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>324</v>
       </c>
@@ -13985,7 +14014,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>344</v>
       </c>
@@ -14026,7 +14055,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="46" spans="1:33">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>344</v>
       </c>
@@ -14061,7 +14090,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="47" spans="1:33">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>355</v>
       </c>
@@ -14102,7 +14131,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="48" spans="1:33">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>363</v>
       </c>
@@ -14141,7 +14170,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>363</v>
       </c>
@@ -14180,7 +14209,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>363</v>
       </c>
@@ -14216,7 +14245,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>363</v>
       </c>
@@ -14255,7 +14284,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>363</v>
       </c>
@@ -14294,7 +14323,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>363</v>
       </c>
@@ -14333,7 +14362,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>363</v>
       </c>
@@ -14372,7 +14401,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>380</v>
       </c>
@@ -14401,7 +14430,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>386</v>
       </c>
@@ -14433,7 +14462,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="15.75">
+    <row r="57" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>393</v>
       </c>
@@ -14471,7 +14500,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>399</v>
       </c>
@@ -14506,7 +14535,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>407</v>
       </c>
@@ -14535,7 +14564,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="60" spans="1:24">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>412</v>
       </c>
@@ -14573,7 +14602,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="61" spans="1:24">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>421</v>
       </c>
@@ -14611,7 +14640,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="62" spans="1:24">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>421</v>
       </c>
@@ -14649,7 +14678,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="63" spans="1:24">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>431</v>
       </c>
@@ -14687,7 +14716,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="64" spans="1:24">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>437</v>
       </c>
@@ -14719,7 +14748,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="65" spans="1:16383">
+    <row r="65" spans="1:16383" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>443</v>
       </c>
@@ -14763,7 +14792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:16383">
+    <row r="66" spans="1:16383" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>452</v>
       </c>
@@ -14801,7 +14830,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="67" spans="1:16383">
+    <row r="67" spans="1:16383" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>459</v>
       </c>
@@ -14827,7 +14856,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="1:16383" ht="15.75">
+    <row r="68" spans="1:16383" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>464</v>
       </c>
@@ -14856,7 +14885,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="69" spans="1:16383">
+    <row r="69" spans="1:16383" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>470</v>
       </c>
@@ -14885,7 +14914,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="70" spans="1:16383">
+    <row r="70" spans="1:16383" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>476</v>
       </c>
@@ -14917,7 +14946,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="71" spans="1:16383" ht="15.75">
+    <row r="71" spans="1:16383" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>483</v>
       </c>
@@ -14955,7 +14984,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="72" spans="1:16383">
+    <row r="72" spans="1:16383" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
         <v>491</v>
       </c>
@@ -14975,7 +15004,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="73" spans="1:16383">
+    <row r="73" spans="1:16383" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>495</v>
       </c>
@@ -15031,7 +15060,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:16383">
+    <row r="74" spans="1:16383" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
         <v>505</v>
       </c>
@@ -15111,7 +15140,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="75" spans="1:16383">
+    <row r="75" spans="1:16383" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>527</v>
       </c>
@@ -15146,7 +15175,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="76" spans="1:16383">
+    <row r="76" spans="1:16383" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>527</v>
       </c>
@@ -15172,7 +15201,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="77" spans="1:16383">
+    <row r="77" spans="1:16383" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>537</v>
       </c>
@@ -31591,7 +31620,7 @@
       <c r="XFB77"/>
       <c r="XFC77"/>
     </row>
-    <row r="78" spans="1:16383" s="1" customFormat="1">
+    <row r="78" spans="1:16383" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>537</v>
       </c>
@@ -31644,7 +31673,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="79" spans="1:16383" s="1" customFormat="1">
+    <row r="79" spans="1:16383" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>537</v>
       </c>
@@ -31697,7 +31726,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="80" spans="1:16383">
+    <row r="80" spans="1:16383" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>537</v>
       </c>
@@ -31738,7 +31767,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="81" spans="1:24">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>563</v>
       </c>
@@ -31767,7 +31796,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="82" spans="1:24">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>563</v>
       </c>
@@ -31804,7 +31833,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="83" spans="1:24">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>572</v>
       </c>
@@ -31845,7 +31874,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="84" spans="1:24">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>572</v>
       </c>
@@ -31874,7 +31903,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="85" spans="1:24">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>584</v>
       </c>
@@ -31921,7 +31950,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="86" spans="1:24">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>591</v>
       </c>
@@ -31953,7 +31982,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="87" spans="1:24">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>598</v>
       </c>
@@ -31979,7 +32008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:24">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>603</v>
       </c>
@@ -32008,7 +32037,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="89" spans="1:24">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>607</v>
       </c>
@@ -32061,7 +32090,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="90" spans="1:24">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>620</v>
       </c>
@@ -32099,7 +32128,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="91" spans="1:24">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>626</v>
       </c>
@@ -32131,7 +32160,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="15.75">
+    <row r="92" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>631</v>
       </c>
@@ -32178,7 +32207,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="93" spans="1:24">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>641</v>
       </c>
@@ -32228,7 +32257,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="94" spans="1:24">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>653</v>
       </c>
@@ -32260,7 +32289,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="95" spans="1:24">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>659</v>
       </c>
@@ -32298,7 +32327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:24">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>668</v>
       </c>
@@ -32351,7 +32380,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="97" spans="1:30" ht="15.75">
+    <row r="97" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>679</v>
       </c>
@@ -32386,7 +32415,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="98" spans="1:30">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>685</v>
       </c>
@@ -32430,7 +32459,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="99" spans="1:30">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>685</v>
       </c>
@@ -32465,7 +32494,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="100" spans="1:30">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>693</v>
       </c>
@@ -32527,7 +32556,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="101" spans="1:30">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>704</v>
       </c>
@@ -32571,7 +32600,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="102" spans="1:30" ht="15.75">
+    <row r="102" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>714</v>
       </c>
@@ -32600,7 +32629,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="103" spans="1:30">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>720</v>
       </c>
@@ -32677,7 +32706,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="104" spans="1:30">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>735</v>
       </c>
@@ -32709,7 +32738,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="105" spans="1:30">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>741</v>
       </c>
@@ -32750,7 +32779,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="106" spans="1:30">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>741</v>
       </c>
@@ -32791,7 +32820,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="107" spans="1:30">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>751</v>
       </c>
@@ -32826,7 +32855,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="108" spans="1:30">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>758</v>
       </c>
@@ -32864,7 +32893,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="109" spans="1:30">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>767</v>
       </c>
@@ -32899,7 +32928,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="110" spans="1:30">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>771</v>
       </c>
@@ -32931,7 +32960,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="111" spans="1:30">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>771</v>
       </c>
@@ -32966,7 +32995,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="112" spans="1:30">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
         <v>771</v>
       </c>
@@ -33007,7 +33036,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="113" spans="1:33">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>790</v>
       </c>
@@ -33093,7 +33122,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="114" spans="1:33">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>790</v>
       </c>
@@ -33128,7 +33157,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="115" spans="1:33">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>790</v>
       </c>
@@ -33166,7 +33195,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="116" spans="1:33">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>816</v>
       </c>
@@ -33216,7 +33245,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="117" spans="1:33">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>824</v>
       </c>
@@ -33251,7 +33280,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="118" spans="1:33">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>824</v>
       </c>
@@ -33289,7 +33318,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="119" spans="1:33">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>824</v>
       </c>
@@ -33324,7 +33353,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="120" spans="1:33">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>840</v>
       </c>
@@ -33359,7 +33388,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="121" spans="1:33">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>848</v>
       </c>
@@ -33391,7 +33420,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="122" spans="1:33">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>852</v>
       </c>
@@ -33449,7 +33478,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="123" spans="1:33">
+    <row r="123" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>861</v>
       </c>
@@ -33510,7 +33539,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="124" spans="1:33">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>874</v>
       </c>
@@ -33542,7 +33571,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="125" spans="1:33">
+    <row r="125" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>878</v>
       </c>
@@ -33577,7 +33606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:33">
+    <row r="126" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>878</v>
       </c>
@@ -33606,7 +33635,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="127" spans="1:33">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>885</v>
       </c>
@@ -33650,7 +33679,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="128" spans="1:33">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>885</v>
       </c>
@@ -33688,7 +33717,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="129" spans="1:27">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>885</v>
       </c>
@@ -33729,7 +33758,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="130" spans="1:27">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>903</v>
       </c>
@@ -33785,7 +33814,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="131" spans="1:27">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>903</v>
       </c>
@@ -33826,7 +33855,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="132" spans="1:27">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>903</v>
       </c>
@@ -33861,7 +33890,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="133" spans="1:27">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>903</v>
       </c>
@@ -33905,7 +33934,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="134" spans="1:27">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A134" s="13" t="s">
         <v>935</v>
       </c>
@@ -33940,7 +33969,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="135" spans="1:27">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>942</v>
       </c>
@@ -33981,7 +34010,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="136" spans="1:27">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>953</v>
       </c>
@@ -34007,7 +34036,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="137" spans="1:27">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>958</v>
       </c>
@@ -34042,7 +34071,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="138" spans="1:27">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>958</v>
       </c>
@@ -34083,7 +34112,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="139" spans="1:27">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>958</v>
       </c>
@@ -34118,7 +34147,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="140" spans="1:27">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>972</v>
       </c>
@@ -34153,7 +34182,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="141" spans="1:27">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>972</v>
       </c>
@@ -34188,7 +34217,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="142" spans="1:27" ht="15.75">
+    <row r="142" spans="1:27" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
         <v>979</v>
       </c>
@@ -34234,7 +34263,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="143" spans="1:27">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>772</v>
       </c>
@@ -34275,7 +34304,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="144" spans="1:27">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>995</v>
       </c>
@@ -34307,7 +34336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:24">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>1000</v>
       </c>
@@ -34345,7 +34374,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="146" spans="1:24">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>1006</v>
       </c>
@@ -34365,7 +34394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:24">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>1010</v>
       </c>
@@ -34406,7 +34435,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="148" spans="1:24">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>1020</v>
       </c>
@@ -34447,7 +34476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:24">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>1028</v>
       </c>
@@ -34479,7 +34508,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="150" spans="1:24">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>1035</v>
       </c>
@@ -34510,7 +34539,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="151" spans="1:24" ht="15.75">
+    <row r="151" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A151" s="18" t="s">
         <v>1040</v>
       </c>
@@ -34560,7 +34589,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="152" spans="1:24" ht="15.75">
+    <row r="152" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A152" s="18" t="s">
         <v>1048</v>
       </c>
@@ -34610,7 +34639,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="153" spans="1:24">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>1053</v>
       </c>
@@ -34654,7 +34683,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="154" spans="1:24">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" s="20" t="s">
         <v>1053</v>
       </c>
@@ -34708,7 +34737,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="155" spans="1:24">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>1053</v>
       </c>
@@ -34746,7 +34775,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="156" spans="1:24">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>1070</v>
       </c>
@@ -34775,7 +34804,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="157" spans="1:24">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>1075</v>
       </c>
@@ -34831,7 +34860,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="158" spans="1:24">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>3629</v>
       </c>
@@ -34878,7 +34907,7 @@
         <v>3637</v>
       </c>
     </row>
-    <row r="159" spans="1:24">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>1085</v>
       </c>
@@ -34913,7 +34942,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="160" spans="1:24">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>1085</v>
       </c>
@@ -34945,7 +34974,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="161" spans="1:34">
+    <row r="161" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>1092</v>
       </c>
@@ -34986,7 +35015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:34">
+    <row r="162" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
         <v>1101</v>
       </c>
@@ -35031,7 +35060,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="163" spans="1:34" ht="15.75">
+    <row r="163" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>1110</v>
       </c>
@@ -35075,7 +35104,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="164" spans="1:34" ht="15.75">
+    <row r="164" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>1110</v>
       </c>
@@ -35122,7 +35151,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="165" spans="1:34">
+    <row r="165" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>1127</v>
       </c>
@@ -35163,7 +35192,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="166" spans="1:34">
+    <row r="166" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>1127</v>
       </c>
@@ -35249,7 +35278,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="167" spans="1:34">
+    <row r="167" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>1127</v>
       </c>
@@ -35296,7 +35325,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="168" spans="1:34">
+    <row r="168" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>1127</v>
       </c>
@@ -35328,7 +35357,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="169" spans="1:34">
+    <row r="169" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>1127</v>
       </c>
@@ -35363,7 +35392,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="170" spans="1:34">
+    <row r="170" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>1155</v>
       </c>
@@ -35416,7 +35445,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="171" spans="1:34">
+    <row r="171" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>1162</v>
       </c>
@@ -35445,7 +35474,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="172" spans="1:34">
+    <row r="172" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>1168</v>
       </c>
@@ -35507,7 +35536,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="173" spans="1:34">
+    <row r="173" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>1181</v>
       </c>
@@ -35566,7 +35595,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="174" spans="1:34" ht="15.75">
+    <row r="174" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>1191</v>
       </c>
@@ -35613,7 +35642,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="175" spans="1:34">
+    <row r="175" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>1191</v>
       </c>
@@ -35648,7 +35677,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="176" spans="1:34">
+    <row r="176" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>1204</v>
       </c>
@@ -35680,7 +35709,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="177" spans="1:24">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>1204</v>
       </c>
@@ -35721,7 +35750,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="178" spans="1:24">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>1212</v>
       </c>
@@ -35762,7 +35791,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="179" spans="1:24">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>1221</v>
       </c>
@@ -35800,7 +35829,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="180" spans="1:24">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>1228</v>
       </c>
@@ -35844,7 +35873,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="181" spans="1:24">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>1228</v>
       </c>
@@ -35873,7 +35902,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="182" spans="1:24">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>1237</v>
       </c>
@@ -35920,7 +35949,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="183" spans="1:24">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>1237</v>
       </c>
@@ -35970,7 +35999,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="184" spans="1:24">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>1237</v>
       </c>
@@ -36020,7 +36049,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="185" spans="1:24">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>1237</v>
       </c>
@@ -36070,7 +36099,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="186" spans="1:24">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>1251</v>
       </c>
@@ -36123,7 +36152,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="187" spans="1:24">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>1251</v>
       </c>
@@ -36170,7 +36199,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="188" spans="1:24">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>1266</v>
       </c>
@@ -36226,7 +36255,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="189" spans="1:24">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>1266</v>
       </c>
@@ -36261,7 +36290,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="190" spans="1:24">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>1266</v>
       </c>
@@ -36323,7 +36352,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="191" spans="1:24">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A191" s="13" t="s">
         <v>1287</v>
       </c>
@@ -36352,7 +36381,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="192" spans="1:24">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A192" s="13" t="s">
         <v>1291</v>
       </c>
@@ -36393,7 +36422,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="193" spans="1:32" ht="15.75" thickBot="1">
+    <row r="193" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="13" t="s">
         <v>3651</v>
       </c>
@@ -36437,7 +36466,7 @@
         <v>3649</v>
       </c>
     </row>
-    <row r="194" spans="1:32">
+    <row r="194" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>1298</v>
       </c>
@@ -36484,7 +36513,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="195" spans="1:32">
+    <row r="195" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>1305</v>
       </c>
@@ -36528,7 +36557,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="196" spans="1:32">
+    <row r="196" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>1314</v>
       </c>
@@ -36572,7 +36601,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="197" spans="1:32">
+    <row r="197" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>219</v>
       </c>
@@ -36622,7 +36651,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="198" spans="1:32">
+    <row r="198" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>1331</v>
       </c>
@@ -36673,7 +36702,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="199" spans="1:32">
+    <row r="199" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>1342</v>
       </c>
@@ -36702,7 +36731,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="200" spans="1:32">
+    <row r="200" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>1346</v>
       </c>
@@ -36740,7 +36769,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="201" spans="1:32">
+    <row r="201" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>1355</v>
       </c>
@@ -36784,7 +36813,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="202" spans="1:32" ht="15.75">
+    <row r="202" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>1361</v>
       </c>
@@ -36822,7 +36851,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="203" spans="1:32">
+    <row r="203" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A203" s="15" t="s">
         <v>1366</v>
       </c>
@@ -36839,7 +36868,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="204" spans="1:32" ht="15.75">
+    <row r="204" spans="1:32" ht="16" x14ac:dyDescent="0.25">
       <c r="A204" s="23" t="s">
         <v>1367</v>
       </c>
@@ -36877,7 +36906,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="205" spans="1:32">
+    <row r="205" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>1374</v>
       </c>
@@ -36968,7 +36997,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="206" spans="1:32">
+    <row r="206" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>1393</v>
       </c>
@@ -37015,7 +37044,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="207" spans="1:32">
+    <row r="207" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>1402</v>
       </c>
@@ -37056,7 +37085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:32">
+    <row r="208" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>1409</v>
       </c>
@@ -37118,7 +37147,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="209" spans="1:27">
+    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>1423</v>
       </c>
@@ -37171,7 +37200,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="210" spans="1:27">
+    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>1423</v>
       </c>
@@ -37209,7 +37238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:27">
+    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>1439</v>
       </c>
@@ -37259,7 +37288,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="212" spans="1:27">
+    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>1439</v>
       </c>
@@ -37309,7 +37338,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="213" spans="1:27">
+    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>1450</v>
       </c>
@@ -37359,7 +37388,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="214" spans="1:27">
+    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>1458</v>
       </c>
@@ -37385,7 +37414,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="215" spans="1:27">
+    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>1461</v>
       </c>
@@ -37408,7 +37437,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="216" spans="1:27">
+    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A216" s="16" t="s">
         <v>1464</v>
       </c>
@@ -37474,7 +37503,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="217" spans="1:27">
+    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>1472</v>
       </c>
@@ -37524,7 +37553,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="218" spans="1:27">
+    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>1483</v>
       </c>
@@ -37559,7 +37588,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="219" spans="1:27">
+    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>1488</v>
       </c>
@@ -37585,7 +37614,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="220" spans="1:27">
+    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A220" s="13" t="s">
         <v>1493</v>
       </c>
@@ -37623,7 +37652,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="221" spans="1:27">
+    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>1499</v>
       </c>
@@ -37676,7 +37705,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="222" spans="1:27">
+    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>1510</v>
       </c>
@@ -37705,7 +37734,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="223" spans="1:27">
+    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A223" s="16" t="s">
         <v>1515</v>
       </c>
@@ -37770,7 +37799,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="224" spans="1:27">
+    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>1529</v>
       </c>
@@ -37817,7 +37846,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="225" spans="1:24">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>1538</v>
       </c>
@@ -37865,7 +37894,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="226" spans="1:24" hidden="1">
+    <row r="226" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>1543</v>
       </c>
@@ -37912,7 +37941,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="227" spans="1:24">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>1555</v>
       </c>
@@ -37942,7 +37971,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="228" spans="1:24" ht="15.75">
+    <row r="228" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>1543</v>
       </c>
@@ -37977,7 +38006,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="229" spans="1:24">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>1543</v>
       </c>
@@ -38024,7 +38053,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="230" spans="1:24">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>1543</v>
       </c>
@@ -38071,7 +38100,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="231" spans="1:24">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>1543</v>
       </c>
@@ -38115,7 +38144,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="232" spans="1:24">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>1543</v>
       </c>
@@ -38150,7 +38179,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="233" spans="1:24">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>1543</v>
       </c>
@@ -38182,7 +38211,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="234" spans="1:24">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>1543</v>
       </c>
@@ -38220,7 +38249,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="235" spans="1:24">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>1543</v>
       </c>
@@ -38258,7 +38287,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="236" spans="1:24" ht="15.75">
+    <row r="236" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>1608</v>
       </c>
@@ -38305,7 +38334,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="237" spans="1:24">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>1608</v>
       </c>
@@ -38352,7 +38381,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="238" spans="1:24">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>1625</v>
       </c>
@@ -38390,7 +38419,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="239" spans="1:24">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>1625</v>
       </c>
@@ -38428,7 +38457,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="240" spans="1:24">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>1635</v>
       </c>
@@ -38460,7 +38489,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="241" spans="1:27">
+    <row r="241" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>1639</v>
       </c>
@@ -38516,7 +38545,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="242" spans="1:27">
+    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>1639</v>
       </c>
@@ -38548,7 +38577,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="243" spans="1:27">
+    <row r="243" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>1657</v>
       </c>
@@ -38589,7 +38618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:27">
+    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>1664</v>
       </c>
@@ -38624,7 +38653,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="245" spans="1:27">
+    <row r="245" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>1664</v>
       </c>
@@ -38662,7 +38691,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="246" spans="1:27">
+    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>1664</v>
       </c>
@@ -38697,7 +38726,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="247" spans="1:27">
+    <row r="247" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>1664</v>
       </c>
@@ -38726,7 +38755,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="248" spans="1:27">
+    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>1664</v>
       </c>
@@ -38758,7 +38787,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="249" spans="1:27">
+    <row r="249" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>1664</v>
       </c>
@@ -38790,7 +38819,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="250" spans="1:27">
+    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>1697</v>
       </c>
@@ -38819,7 +38848,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="251" spans="1:27">
+    <row r="251" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>1703</v>
       </c>
@@ -38866,7 +38895,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="252" spans="1:27">
+    <row r="252" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>1710</v>
       </c>
@@ -38895,7 +38924,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="253" spans="1:27">
+    <row r="253" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>1716</v>
       </c>
@@ -38942,7 +38971,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="254" spans="1:27">
+    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>1716</v>
       </c>
@@ -38986,7 +39015,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="255" spans="1:27">
+    <row r="255" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>1716</v>
       </c>
@@ -39033,7 +39062,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="256" spans="1:27">
+    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>1716</v>
       </c>
@@ -39083,7 +39112,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="257" spans="1:27">
+    <row r="257" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>1716</v>
       </c>
@@ -39139,7 +39168,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="258" spans="1:27">
+    <row r="258" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>1716</v>
       </c>
@@ -39181,7 +39210,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="259" spans="1:27">
+    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>1716</v>
       </c>
@@ -39225,7 +39254,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="260" spans="1:27">
+    <row r="260" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>1716</v>
       </c>
@@ -39272,7 +39301,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="261" spans="1:27">
+    <row r="261" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>1716</v>
       </c>
@@ -39313,7 +39342,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="262" spans="1:27" ht="15.75">
+    <row r="262" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>1716</v>
       </c>
@@ -39351,7 +39380,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="263" spans="1:27">
+    <row r="263" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>1716</v>
       </c>
@@ -39389,7 +39418,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="264" spans="1:27" ht="15.75">
+    <row r="264" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>1788</v>
       </c>
@@ -39418,7 +39447,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="265" spans="1:27">
+    <row r="265" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>1794</v>
       </c>
@@ -39477,7 +39506,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="266" spans="1:27">
+    <row r="266" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>1794</v>
       </c>
@@ -39548,7 +39577,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="267" spans="1:27">
+    <row r="267" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>1820</v>
       </c>
@@ -39580,7 +39609,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="268" spans="1:27">
+    <row r="268" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>1820</v>
       </c>
@@ -39621,7 +39650,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="269" spans="1:27">
+    <row r="269" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>1831</v>
       </c>
@@ -39650,7 +39679,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="270" spans="1:27">
+    <row r="270" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>1835</v>
       </c>
@@ -39688,7 +39717,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="271" spans="1:27">
+    <row r="271" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>1843</v>
       </c>
@@ -39744,7 +39773,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="272" spans="1:27">
+    <row r="272" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>1852</v>
       </c>
@@ -39782,7 +39811,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="273" spans="1:33">
+    <row r="273" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>1858</v>
       </c>
@@ -39814,7 +39843,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="274" spans="1:33">
+    <row r="274" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>1858</v>
       </c>
@@ -39849,7 +39878,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="275" spans="1:33">
+    <row r="275" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>1858</v>
       </c>
@@ -39881,7 +39910,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="276" spans="1:33">
+    <row r="276" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>1858</v>
       </c>
@@ -39931,7 +39960,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="277" spans="1:33">
+    <row r="277" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>1858</v>
       </c>
@@ -39987,7 +40016,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="278" spans="1:33">
+    <row r="278" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>1858</v>
       </c>
@@ -40040,7 +40069,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="279" spans="1:33">
+    <row r="279" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>1858</v>
       </c>
@@ -40093,7 +40122,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="280" spans="1:33">
+    <row r="280" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>1858</v>
       </c>
@@ -40137,7 +40166,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="281" spans="1:33">
+    <row r="281" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>1902</v>
       </c>
@@ -40172,7 +40201,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="282" spans="1:33">
+    <row r="282" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>1902</v>
       </c>
@@ -40210,7 +40239,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="283" spans="1:33">
+    <row r="283" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>1902</v>
       </c>
@@ -40242,7 +40271,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="284" spans="1:33">
+    <row r="284" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>1902</v>
       </c>
@@ -40286,7 +40315,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="285" spans="1:33">
+    <row r="285" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>1902</v>
       </c>
@@ -40321,7 +40350,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="286" spans="1:33" ht="15.75">
+    <row r="286" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>1920</v>
       </c>
@@ -40359,7 +40388,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="287" spans="1:33">
+    <row r="287" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>1928</v>
       </c>
@@ -40442,7 +40471,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="288" spans="1:33">
+    <row r="288" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>1928</v>
       </c>
@@ -40486,7 +40515,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="289" spans="1:24">
+    <row r="289" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>1928</v>
       </c>
@@ -40527,7 +40556,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="290" spans="1:24" hidden="1">
+    <row r="290" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>1954</v>
       </c>
@@ -40574,7 +40603,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="291" spans="1:24" ht="15.75">
+    <row r="291" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>1928</v>
       </c>
@@ -40609,7 +40638,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="292" spans="1:24">
+    <row r="292" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>1966</v>
       </c>
@@ -40662,7 +40691,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="293" spans="1:24">
+    <row r="293" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>1976</v>
       </c>
@@ -40705,7 +40734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:24">
+    <row r="294" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>1982</v>
       </c>
@@ -40740,7 +40769,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="295" spans="1:24">
+    <row r="295" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>1987</v>
       </c>
@@ -40772,7 +40801,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="296" spans="1:24">
+    <row r="296" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>1992</v>
       </c>
@@ -40809,7 +40838,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="297" spans="1:24">
+    <row r="297" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>1997</v>
       </c>
@@ -40860,7 +40889,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="298" spans="1:24">
+    <row r="298" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>2009</v>
       </c>
@@ -40886,7 +40915,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="299" spans="1:24">
+    <row r="299" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>2010</v>
       </c>
@@ -40924,7 +40953,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="300" spans="1:24">
+    <row r="300" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>2014</v>
       </c>
@@ -40959,7 +40988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:24">
+    <row r="301" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>2022</v>
       </c>
@@ -40988,7 +41017,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="302" spans="1:24">
+    <row r="302" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>2027</v>
       </c>
@@ -41014,7 +41043,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="303" spans="1:24" ht="15.75">
+    <row r="303" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>2030</v>
       </c>
@@ -41040,7 +41069,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="304" spans="1:24">
+    <row r="304" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>2034</v>
       </c>
@@ -41072,7 +41101,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="305" spans="1:27">
+    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>2039</v>
       </c>
@@ -41119,7 +41148,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="306" spans="1:27">
+    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A306" s="4" t="s">
         <v>2047</v>
       </c>
@@ -41163,7 +41192,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="307" spans="1:27">
+    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>2054</v>
       </c>
@@ -41210,7 +41239,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="308" spans="1:27">
+    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>2062</v>
       </c>
@@ -41236,7 +41265,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="309" spans="1:27">
+    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>2069</v>
       </c>
@@ -41265,7 +41294,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="310" spans="1:27">
+    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>2072</v>
       </c>
@@ -41297,7 +41326,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="311" spans="1:27" ht="15.75">
+    <row r="311" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>2077</v>
       </c>
@@ -41323,7 +41352,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="312" spans="1:27">
+    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>2080</v>
       </c>
@@ -41382,7 +41411,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="313" spans="1:27">
+    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>2091</v>
       </c>
@@ -41444,7 +41473,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="314" spans="1:27">
+    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>2091</v>
       </c>
@@ -41476,7 +41505,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="315" spans="1:27">
+    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A315" s="13" t="s">
         <v>2105</v>
       </c>
@@ -41505,7 +41534,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="316" spans="1:27">
+    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>2109</v>
       </c>
@@ -41546,7 +41575,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="317" spans="1:27">
+    <row r="317" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>2115</v>
       </c>
@@ -41584,7 +41613,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="318" spans="1:27">
+    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>2115</v>
       </c>
@@ -41619,7 +41648,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="319" spans="1:27">
+    <row r="319" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>2125</v>
       </c>
@@ -41648,7 +41677,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="320" spans="1:27">
+    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>2128</v>
       </c>
@@ -41680,7 +41709,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="321" spans="1:25">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>2133</v>
       </c>
@@ -41712,7 +41741,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="322" spans="1:25">
+    <row r="322" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A322" s="17" t="s">
         <v>2137</v>
       </c>
@@ -41746,7 +41775,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="323" spans="1:25">
+    <row r="323" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>2137</v>
       </c>
@@ -41775,7 +41804,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="324" spans="1:25">
+    <row r="324" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>2144</v>
       </c>
@@ -41813,7 +41842,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="325" spans="1:25">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>2144</v>
       </c>
@@ -41851,7 +41880,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="326" spans="1:25">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>2144</v>
       </c>
@@ -41889,7 +41918,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="327" spans="1:25">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>2144</v>
       </c>
@@ -41918,7 +41947,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="328" spans="1:25">
+    <row r="328" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>2157</v>
       </c>
@@ -41950,7 +41979,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="329" spans="1:25">
+    <row r="329" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>2157</v>
       </c>
@@ -41991,7 +42020,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="330" spans="1:25">
+    <row r="330" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>2163</v>
       </c>
@@ -42023,7 +42052,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="331" spans="1:25">
+    <row r="331" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>2168</v>
       </c>
@@ -42055,7 +42084,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="332" spans="1:25">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>2168</v>
       </c>
@@ -42081,7 +42110,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="333" spans="1:25">
+    <row r="333" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>2174</v>
       </c>
@@ -42125,7 +42154,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="334" spans="1:25">
+    <row r="334" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>2183</v>
       </c>
@@ -42178,7 +42207,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="335" spans="1:25">
+    <row r="335" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>2183</v>
       </c>
@@ -42216,7 +42245,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="336" spans="1:25">
+    <row r="336" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>2183</v>
       </c>
@@ -42264,7 +42293,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="337" spans="1:33">
+    <row r="337" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>2183</v>
       </c>
@@ -42299,7 +42328,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="338" spans="1:33">
+    <row r="338" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>2183</v>
       </c>
@@ -42337,7 +42366,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="339" spans="1:33">
+    <row r="339" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>2202</v>
       </c>
@@ -42372,7 +42401,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="340" spans="1:33">
+    <row r="340" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>2207</v>
       </c>
@@ -42408,7 +42437,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="341" spans="1:33">
+    <row r="341" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>2211</v>
       </c>
@@ -42446,7 +42475,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="342" spans="1:33">
+    <row r="342" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A342" s="20" t="s">
         <v>2211</v>
       </c>
@@ -42496,7 +42525,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="343" spans="1:33">
+    <row r="343" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>2227</v>
       </c>
@@ -42543,7 +42572,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="344" spans="1:33">
+    <row r="344" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>2227</v>
       </c>
@@ -42587,7 +42616,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="345" spans="1:33">
+    <row r="345" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>2239</v>
       </c>
@@ -42631,7 +42660,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="346" spans="1:33">
+    <row r="346" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>2247</v>
       </c>
@@ -42678,7 +42707,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="347" spans="1:33">
+    <row r="347" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>2256</v>
       </c>
@@ -42716,7 +42745,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="348" spans="1:33">
+    <row r="348" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>2262</v>
       </c>
@@ -42757,7 +42786,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="349" spans="1:33">
+    <row r="349" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>2268</v>
       </c>
@@ -42783,7 +42812,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="350" spans="1:33">
+    <row r="350" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>2272</v>
       </c>
@@ -42815,7 +42844,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="351" spans="1:33">
+    <row r="351" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>2276</v>
       </c>
@@ -42847,7 +42876,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="352" spans="1:33">
+    <row r="352" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>2282</v>
       </c>
@@ -42933,7 +42962,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="353" spans="1:39">
+    <row r="353" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>2282</v>
       </c>
@@ -42975,7 +43004,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="354" spans="1:39">
+    <row r="354" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>2301</v>
       </c>
@@ -43028,7 +43057,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="355" spans="1:39">
+    <row r="355" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>2301</v>
       </c>
@@ -43078,7 +43107,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="356" spans="1:39">
+    <row r="356" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>2310</v>
       </c>
@@ -43107,7 +43136,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="357" spans="1:39">
+    <row r="357" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>2315</v>
       </c>
@@ -43151,7 +43180,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="358" spans="1:39">
+    <row r="358" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>2322</v>
       </c>
@@ -43189,7 +43218,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="359" spans="1:39">
+    <row r="359" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A359" s="16" t="s">
         <v>2330</v>
       </c>
@@ -43295,7 +43324,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="360" spans="1:39">
+    <row r="360" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>2348</v>
       </c>
@@ -43345,7 +43374,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="361" spans="1:39">
+    <row r="361" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>2355</v>
       </c>
@@ -43377,7 +43406,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="362" spans="1:39">
+    <row r="362" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A362" s="13" t="s">
         <v>2358</v>
       </c>
@@ -43415,7 +43444,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="363" spans="1:39">
+    <row r="363" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>2362</v>
       </c>
@@ -43491,7 +43520,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="364" spans="1:39">
+    <row r="364" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>2371</v>
       </c>
@@ -43532,7 +43561,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="365" spans="1:39">
+    <row r="365" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>2379</v>
       </c>
@@ -43573,7 +43602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:39">
+    <row r="366" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>2385</v>
       </c>
@@ -43600,7 +43629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:39">
+    <row r="367" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>2387</v>
       </c>
@@ -43641,7 +43670,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="368" spans="1:39">
+    <row r="368" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>2394</v>
       </c>
@@ -43673,7 +43702,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="369" spans="1:34">
+    <row r="369" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>2397</v>
       </c>
@@ -43711,7 +43740,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="370" spans="1:34">
+    <row r="370" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>2401</v>
       </c>
@@ -43755,7 +43784,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="371" spans="1:34">
+    <row r="371" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A371" s="33" t="s">
         <v>2408</v>
       </c>
@@ -43794,7 +43823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:34" ht="15.75">
+    <row r="372" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>2413</v>
       </c>
@@ -43820,7 +43849,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="373" spans="1:34">
+    <row r="373" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A373" s="5" t="s">
         <v>2418</v>
       </c>
@@ -43865,7 +43894,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="374" spans="1:34">
+    <row r="374" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>2418</v>
       </c>
@@ -43903,7 +43932,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="375" spans="1:34">
+    <row r="375" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>2418</v>
       </c>
@@ -43938,7 +43967,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="376" spans="1:34">
+    <row r="376" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>2429</v>
       </c>
@@ -43976,7 +44005,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="377" spans="1:34">
+    <row r="377" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>2433</v>
       </c>
@@ -44023,7 +44052,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="378" spans="1:34">
+    <row r="378" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>2433</v>
       </c>
@@ -44079,7 +44108,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="379" spans="1:34">
+    <row r="379" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>2433</v>
       </c>
@@ -44114,7 +44143,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="380" spans="1:34">
+    <row r="380" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A380" s="16" t="s">
         <v>2457</v>
       </c>
@@ -44200,7 +44229,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="381" spans="1:34">
+    <row r="381" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>2457</v>
       </c>
@@ -44232,7 +44261,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="382" spans="1:34">
+    <row r="382" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>2472</v>
       </c>
@@ -44315,7 +44344,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="383" spans="1:34">
+    <row r="383" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A383" s="13" t="s">
         <v>2488</v>
       </c>
@@ -44344,7 +44373,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="384" spans="1:34">
+    <row r="384" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A384" s="16" t="s">
         <v>2491</v>
       </c>
@@ -44406,7 +44435,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="385" spans="1:24">
+    <row r="385" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>2504</v>
       </c>
@@ -44459,7 +44488,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="386" spans="1:24">
+    <row r="386" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>2515</v>
       </c>
@@ -44497,7 +44526,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="387" spans="1:24">
+    <row r="387" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>2520</v>
       </c>
@@ -44547,7 +44576,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="388" spans="1:24">
+    <row r="388" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>2527</v>
       </c>
@@ -44591,7 +44620,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="389" spans="1:24">
+    <row r="389" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>2527</v>
       </c>
@@ -44635,7 +44664,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="390" spans="1:24">
+    <row r="390" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>2527</v>
       </c>
@@ -44688,7 +44717,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="391" spans="1:24">
+    <row r="391" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>2548</v>
       </c>
@@ -44733,7 +44762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="392" spans="1:24">
+    <row r="392" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>2554</v>
       </c>
@@ -44768,7 +44797,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="393" spans="1:24">
+    <row r="393" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>2560</v>
       </c>
@@ -44809,7 +44838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:24">
+    <row r="394" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>2567</v>
       </c>
@@ -44838,7 +44867,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="395" spans="1:24" ht="15.75">
+    <row r="395" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>2570</v>
       </c>
@@ -44867,7 +44896,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="396" spans="1:24">
+    <row r="396" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>2575</v>
       </c>
@@ -44919,7 +44948,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="397" spans="1:24">
+    <row r="397" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>2583</v>
       </c>
@@ -44960,7 +44989,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="398" spans="1:24">
+    <row r="398" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>2592</v>
       </c>
@@ -45004,7 +45033,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="399" spans="1:24">
+    <row r="399" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>2601</v>
       </c>
@@ -45048,7 +45077,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="400" spans="1:24">
+    <row r="400" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>2608</v>
       </c>
@@ -45086,7 +45115,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="401" spans="1:27">
+    <row r="401" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>2611</v>
       </c>
@@ -45142,7 +45171,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="402" spans="1:27">
+    <row r="402" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>2619</v>
       </c>
@@ -45201,7 +45230,7 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="403" spans="1:27">
+    <row r="403" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>2619</v>
       </c>
@@ -45236,7 +45265,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="404" spans="1:27">
+    <row r="404" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>2631</v>
       </c>
@@ -45295,7 +45324,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="405" spans="1:27">
+    <row r="405" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>2641</v>
       </c>
@@ -45345,7 +45374,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="406" spans="1:27">
+    <row r="406" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>2641</v>
       </c>
@@ -45380,7 +45409,7 @@
         <v>2649</v>
       </c>
     </row>
-    <row r="407" spans="1:27">
+    <row r="407" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>2650</v>
       </c>
@@ -45415,7 +45444,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="408" spans="1:27">
+    <row r="408" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>2655</v>
       </c>
@@ -45468,7 +45497,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="409" spans="1:27">
+    <row r="409" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>2665</v>
       </c>
@@ -45509,7 +45538,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="410" spans="1:27">
+    <row r="410" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>2665</v>
       </c>
@@ -45541,7 +45570,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="411" spans="1:27">
+    <row r="411" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>2665</v>
       </c>
@@ -45570,7 +45599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="412" spans="1:27">
+    <row r="412" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>2673</v>
       </c>
@@ -45602,7 +45631,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="413" spans="1:27">
+    <row r="413" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>2679</v>
       </c>
@@ -45640,7 +45669,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="414" spans="1:27">
+    <row r="414" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>2679</v>
       </c>
@@ -45696,7 +45725,7 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="415" spans="1:27">
+    <row r="415" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>2469</v>
       </c>
@@ -45746,7 +45775,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="416" spans="1:27">
+    <row r="416" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>2696</v>
       </c>
@@ -45772,7 +45801,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="417" spans="1:28" ht="15.75">
+    <row r="417" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>2701</v>
       </c>
@@ -45810,7 +45839,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="418" spans="1:28">
+    <row r="418" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>2708</v>
       </c>
@@ -45866,7 +45895,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="419" spans="1:28">
+    <row r="419" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>2708</v>
       </c>
@@ -45910,7 +45939,7 @@
         <v>2721</v>
       </c>
     </row>
-    <row r="420" spans="1:28">
+    <row r="420" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>2708</v>
       </c>
@@ -45951,7 +45980,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="421" spans="1:28">
+    <row r="421" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
         <v>2708</v>
       </c>
@@ -46001,7 +46030,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="422" spans="1:28">
+    <row r="422" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>2728</v>
       </c>
@@ -46048,7 +46077,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="423" spans="1:28">
+    <row r="423" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
         <v>2735</v>
       </c>
@@ -46095,7 +46124,7 @@
         <v>2744</v>
       </c>
     </row>
-    <row r="424" spans="1:28" ht="15.75">
+    <row r="424" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>2745</v>
       </c>
@@ -46133,7 +46162,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="425" spans="1:28">
+    <row r="425" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>2750</v>
       </c>
@@ -46174,7 +46203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="426" spans="1:28">
+    <row r="426" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>2750</v>
       </c>
@@ -46218,7 +46247,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="427" spans="1:28">
+    <row r="427" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A427" s="13" t="s">
         <v>2762</v>
       </c>
@@ -46259,7 +46288,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="428" spans="1:28">
+    <row r="428" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>2768</v>
       </c>
@@ -46300,7 +46329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="429" spans="1:28">
+    <row r="429" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>2775</v>
       </c>
@@ -46344,7 +46373,7 @@
         <v>2783</v>
       </c>
     </row>
-    <row r="430" spans="1:28">
+    <row r="430" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>2775</v>
       </c>
@@ -46377,7 +46406,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="431" spans="1:28">
+    <row r="431" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
         <v>2784</v>
       </c>
@@ -46403,7 +46432,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="432" spans="1:28">
+    <row r="432" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>2788</v>
       </c>
@@ -46450,7 +46479,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="433" spans="1:30">
+    <row r="433" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
         <v>2794</v>
       </c>
@@ -46482,7 +46511,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="434" spans="1:30">
+    <row r="434" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>2798</v>
       </c>
@@ -46514,7 +46543,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="435" spans="1:30">
+    <row r="435" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>2801</v>
       </c>
@@ -46546,7 +46575,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="436" spans="1:30">
+    <row r="436" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>2805</v>
       </c>
@@ -46587,7 +46616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="437" spans="1:30">
+    <row r="437" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A437" s="16" t="s">
         <v>2812</v>
       </c>
@@ -46652,7 +46681,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="438" spans="1:30">
+    <row r="438" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>2822</v>
       </c>
@@ -46699,7 +46728,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="439" spans="1:30">
+    <row r="439" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>2822</v>
       </c>
@@ -46734,7 +46763,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="440" spans="1:30">
+    <row r="440" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>2822</v>
       </c>
@@ -46769,7 +46798,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="441" spans="1:30">
+    <row r="441" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>2822</v>
       </c>
@@ -46810,7 +46839,7 @@
         <v>2846</v>
       </c>
     </row>
-    <row r="442" spans="1:30">
+    <row r="442" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>2847</v>
       </c>
@@ -46851,7 +46880,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="443" spans="1:30">
+    <row r="443" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A443" s="13" t="s">
         <v>2851</v>
       </c>
@@ -46880,7 +46909,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="444" spans="1:30">
+    <row r="444" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>2854</v>
       </c>
@@ -46915,7 +46944,7 @@
         <v>2859</v>
       </c>
     </row>
-    <row r="445" spans="1:30">
+    <row r="445" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A445" s="13" t="s">
         <v>2860</v>
       </c>
@@ -46944,7 +46973,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="446" spans="1:30">
+    <row r="446" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>2863</v>
       </c>
@@ -47009,7 +47038,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="447" spans="1:30">
+    <row r="447" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>2863</v>
       </c>
@@ -47068,7 +47097,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="448" spans="1:30">
+    <row r="448" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>2877</v>
       </c>
@@ -47118,7 +47147,7 @@
         <v>2883</v>
       </c>
     </row>
-    <row r="449" spans="1:24">
+    <row r="449" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
         <v>2877</v>
       </c>
@@ -47171,7 +47200,7 @@
         <v>2890</v>
       </c>
     </row>
-    <row r="450" spans="1:24">
+    <row r="450" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>2891</v>
       </c>
@@ -47203,7 +47232,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="451" spans="1:24">
+    <row r="451" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>2891</v>
       </c>
@@ -47262,7 +47291,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="452" spans="1:24">
+    <row r="452" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>2902</v>
       </c>
@@ -47297,7 +47326,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="453" spans="1:24">
+    <row r="453" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>2902</v>
       </c>
@@ -47344,7 +47373,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="454" spans="1:24">
+    <row r="454" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>2902</v>
       </c>
@@ -47394,7 +47423,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="455" spans="1:24">
+    <row r="455" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>2919</v>
       </c>
@@ -47447,7 +47476,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="456" spans="1:24" ht="15.75">
+    <row r="456" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>2925</v>
       </c>
@@ -47485,7 +47514,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="457" spans="1:24">
+    <row r="457" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>2931</v>
       </c>
@@ -47520,7 +47549,7 @@
         <v>2938</v>
       </c>
     </row>
-    <row r="458" spans="1:24">
+    <row r="458" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>2931</v>
       </c>
@@ -47558,7 +47587,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="459" spans="1:24">
+    <row r="459" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>2931</v>
       </c>
@@ -47596,7 +47625,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="460" spans="1:24">
+    <row r="460" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>2931</v>
       </c>
@@ -47634,7 +47663,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="461" spans="1:24">
+    <row r="461" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
         <v>2931</v>
       </c>
@@ -47663,7 +47692,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="462" spans="1:24">
+    <row r="462" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>2954</v>
       </c>
@@ -47704,7 +47733,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="463" spans="1:24">
+    <row r="463" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
         <v>2892</v>
       </c>
@@ -47739,7 +47768,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="464" spans="1:24">
+    <row r="464" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>2892</v>
       </c>
@@ -47780,7 +47809,7 @@
         <v>2967</v>
       </c>
     </row>
-    <row r="465" spans="1:24">
+    <row r="465" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>2892</v>
       </c>
@@ -47812,7 +47841,7 @@
         <v>2973</v>
       </c>
     </row>
-    <row r="466" spans="1:24">
+    <row r="466" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>2974</v>
       </c>
@@ -47853,7 +47882,7 @@
         <v>2982</v>
       </c>
     </row>
-    <row r="467" spans="1:24">
+    <row r="467" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>2974</v>
       </c>
@@ -47900,7 +47929,7 @@
         <v>2990</v>
       </c>
     </row>
-    <row r="468" spans="1:24">
+    <row r="468" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>2974</v>
       </c>
@@ -47935,7 +47964,7 @@
         <v>2997</v>
       </c>
     </row>
-    <row r="469" spans="1:24">
+    <row r="469" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>2998</v>
       </c>
@@ -47967,7 +47996,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="470" spans="1:24">
+    <row r="470" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>3002</v>
       </c>
@@ -48005,7 +48034,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="471" spans="1:24">
+    <row r="471" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>3008</v>
       </c>
@@ -48046,7 +48075,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="472" spans="1:24">
+    <row r="472" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>3013</v>
       </c>
@@ -48101,7 +48130,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="473" spans="1:24">
+    <row r="473" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>3021</v>
       </c>
@@ -48142,7 +48171,7 @@
         <v>3028</v>
       </c>
     </row>
-    <row r="474" spans="1:24">
+    <row r="474" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A474" s="15" t="s">
         <v>3029</v>
       </c>
@@ -48175,7 +48204,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="475" spans="1:24">
+    <row r="475" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A475" s="15" t="s">
         <v>3032</v>
       </c>
@@ -48208,7 +48237,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="476" spans="1:24">
+    <row r="476" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>3032</v>
       </c>
@@ -48267,7 +48296,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="477" spans="1:24" ht="15.75">
+    <row r="477" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
         <v>531</v>
       </c>
@@ -48308,7 +48337,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="478" spans="1:24">
+    <row r="478" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>531</v>
       </c>
@@ -48343,7 +48372,7 @@
         <v>3055</v>
       </c>
     </row>
-    <row r="479" spans="1:24">
+    <row r="479" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>3056</v>
       </c>
@@ -48381,7 +48410,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="480" spans="1:24">
+    <row r="480" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>3056</v>
       </c>
@@ -48419,7 +48448,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="481" spans="1:24">
+    <row r="481" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>3056</v>
       </c>
@@ -48460,7 +48489,7 @@
         <v>3065</v>
       </c>
     </row>
-    <row r="482" spans="1:24">
+    <row r="482" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>3066</v>
       </c>
@@ -48507,7 +48536,7 @@
         <v>3071</v>
       </c>
     </row>
-    <row r="483" spans="1:24">
+    <row r="483" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>3072</v>
       </c>
@@ -48542,7 +48571,7 @@
         <v>3077</v>
       </c>
     </row>
-    <row r="484" spans="1:24">
+    <row r="484" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
         <v>3072</v>
       </c>
@@ -48577,7 +48606,7 @@
         <v>3082</v>
       </c>
     </row>
-    <row r="485" spans="1:24">
+    <row r="485" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
         <v>3072</v>
       </c>
@@ -48612,7 +48641,7 @@
         <v>3087</v>
       </c>
     </row>
-    <row r="486" spans="1:24">
+    <row r="486" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
         <v>3088</v>
       </c>
@@ -48662,7 +48691,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="487" spans="1:24">
+    <row r="487" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
         <v>3088</v>
       </c>
@@ -48709,7 +48738,7 @@
         <v>3097</v>
       </c>
     </row>
-    <row r="488" spans="1:24">
+    <row r="488" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>3098</v>
       </c>
@@ -48765,7 +48794,7 @@
         <v>3107</v>
       </c>
     </row>
-    <row r="489" spans="1:24">
+    <row r="489" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>3108</v>
       </c>
@@ -48818,7 +48847,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="490" spans="1:24">
+    <row r="490" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>3117</v>
       </c>
@@ -48862,7 +48891,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="491" spans="1:24">
+    <row r="491" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
         <v>3124</v>
       </c>
@@ -48915,7 +48944,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="492" spans="1:24">
+    <row r="492" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
         <v>3124</v>
       </c>
@@ -48956,7 +48985,7 @@
         <v>3138</v>
       </c>
     </row>
-    <row r="493" spans="1:24">
+    <row r="493" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
         <v>3124</v>
       </c>
@@ -48991,7 +49020,7 @@
         <v>3144</v>
       </c>
     </row>
-    <row r="494" spans="1:24">
+    <row r="494" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A494" s="15" t="s">
         <v>3124</v>
       </c>
@@ -49017,7 +49046,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="495" spans="1:24">
+    <row r="495" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
         <v>3147</v>
       </c>
@@ -49046,7 +49075,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="496" spans="1:24">
+    <row r="496" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
         <v>3150</v>
       </c>
@@ -49096,7 +49125,7 @@
         <v>3156</v>
       </c>
     </row>
-    <row r="497" spans="1:26">
+    <row r="497" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
         <v>3157</v>
       </c>
@@ -49140,7 +49169,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="498" spans="1:26">
+    <row r="498" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
         <v>3157</v>
       </c>
@@ -49184,7 +49213,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="499" spans="1:26">
+    <row r="499" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A499" s="13" t="s">
         <v>3164</v>
       </c>
@@ -49222,7 +49251,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="500" spans="1:26">
+    <row r="500" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>3170</v>
       </c>
@@ -49272,7 +49301,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="501" spans="1:26">
+    <row r="501" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>3177</v>
       </c>
@@ -49307,7 +49336,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="502" spans="1:26">
+    <row r="502" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A502" s="16" t="s">
         <v>3184</v>
       </c>
@@ -49354,7 +49383,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="503" spans="1:26">
+    <row r="503" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A503" s="16" t="s">
         <v>3191</v>
       </c>
@@ -49425,7 +49454,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="504" spans="1:26">
+    <row r="504" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
         <v>3204</v>
       </c>
@@ -49469,10 +49498,10 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="505" spans="1:26">
+    <row r="505" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A505" s="15"/>
     </row>
-    <row r="506" spans="1:26">
+    <row r="506" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G506" s="1" t="s">
         <v>3208</v>
       </c>
@@ -49489,7 +49518,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="507" spans="1:26">
+    <row r="507" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F507" s="1" t="s">
         <v>3210</v>
       </c>
@@ -49515,7 +49544,7 @@
         <v>3214</v>
       </c>
     </row>
-    <row r="508" spans="1:26">
+    <row r="508" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G508" s="1" t="s">
         <v>3215</v>
       </c>
@@ -49538,7 +49567,7 @@
         <v>3217</v>
       </c>
     </row>
-    <row r="509" spans="1:26">
+    <row r="509" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G509" s="1" t="s">
         <v>3218</v>
       </c>
@@ -49561,7 +49590,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="510" spans="1:26">
+    <row r="510" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G510" s="1" t="s">
         <v>3219</v>
       </c>
@@ -49578,7 +49607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="511" spans="1:26">
+    <row r="511" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F511" s="1" t="s">
         <v>3221</v>
       </c>
@@ -49610,7 +49639,7 @@
         <v>3226</v>
       </c>
     </row>
-    <row r="512" spans="1:26">
+    <row r="512" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F512" s="1" t="s">
         <v>3227</v>
       </c>
@@ -49642,7 +49671,7 @@
         <v>3226</v>
       </c>
     </row>
-    <row r="513" spans="4:24">
+    <row r="513" spans="4:24" x14ac:dyDescent="0.2">
       <c r="E513" s="1" t="s">
         <v>132</v>
       </c>
@@ -49686,7 +49715,7 @@
         <v>3235</v>
       </c>
     </row>
-    <row r="514" spans="4:24">
+    <row r="514" spans="4:24" x14ac:dyDescent="0.2">
       <c r="F514" s="1" t="s">
         <v>3236</v>
       </c>
@@ -49718,7 +49747,7 @@
         <v>3239</v>
       </c>
     </row>
-    <row r="515" spans="4:24">
+    <row r="515" spans="4:24" x14ac:dyDescent="0.2">
       <c r="E515" s="1" t="s">
         <v>132</v>
       </c>
@@ -49753,7 +49782,7 @@
         <v>3241</v>
       </c>
     </row>
-    <row r="516" spans="4:24">
+    <row r="516" spans="4:24" x14ac:dyDescent="0.2">
       <c r="E516" s="1" t="s">
         <v>1427</v>
       </c>
@@ -49791,7 +49820,7 @@
         <v>3245</v>
       </c>
     </row>
-    <row r="517" spans="4:24">
+    <row r="517" spans="4:24" x14ac:dyDescent="0.2">
       <c r="F517" s="1" t="s">
         <v>3246</v>
       </c>
@@ -49820,7 +49849,7 @@
         <v>3248</v>
       </c>
     </row>
-    <row r="518" spans="4:24">
+    <row r="518" spans="4:24" x14ac:dyDescent="0.2">
       <c r="F518" s="1" t="s">
         <v>3249</v>
       </c>
@@ -49852,7 +49881,7 @@
         <v>3251</v>
       </c>
     </row>
-    <row r="519" spans="4:24">
+    <row r="519" spans="4:24" x14ac:dyDescent="0.2">
       <c r="G519" s="1" t="s">
         <v>3252</v>
       </c>
@@ -49881,7 +49910,7 @@
         <v>3251</v>
       </c>
     </row>
-    <row r="520" spans="4:24">
+    <row r="520" spans="4:24" x14ac:dyDescent="0.2">
       <c r="G520" s="1" t="s">
         <v>3253</v>
       </c>
@@ -49922,7 +49951,7 @@
         <v>3257</v>
       </c>
     </row>
-    <row r="521" spans="4:24">
+    <row r="521" spans="4:24" x14ac:dyDescent="0.2">
       <c r="E521" s="1" t="s">
         <v>3258</v>
       </c>
@@ -49951,7 +49980,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="522" spans="4:24">
+    <row r="522" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D522" s="1" t="s">
         <v>3262</v>
       </c>
@@ -49977,7 +50006,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="523" spans="4:24">
+    <row r="523" spans="4:24" x14ac:dyDescent="0.2">
       <c r="F523" s="1" t="s">
         <v>3263</v>
       </c>
@@ -50003,7 +50032,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="524" spans="4:24">
+    <row r="524" spans="4:24" x14ac:dyDescent="0.2">
       <c r="F524" s="1" t="s">
         <v>3267</v>
       </c>
@@ -50035,7 +50064,7 @@
         <v>3273</v>
       </c>
     </row>
-    <row r="525" spans="4:24">
+    <row r="525" spans="4:24" x14ac:dyDescent="0.2">
       <c r="G525" s="1" t="s">
         <v>3274</v>
       </c>
@@ -50064,7 +50093,7 @@
         <v>3277</v>
       </c>
     </row>
-    <row r="526" spans="4:24">
+    <row r="526" spans="4:24" x14ac:dyDescent="0.2">
       <c r="G526" s="1" t="s">
         <v>3278</v>
       </c>
@@ -50102,7 +50131,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="527" spans="4:24">
+    <row r="527" spans="4:24" x14ac:dyDescent="0.2">
       <c r="E527" s="1" t="s">
         <v>132</v>
       </c>
@@ -50137,7 +50166,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="528" spans="4:24">
+    <row r="528" spans="4:24" x14ac:dyDescent="0.2">
       <c r="E528" s="1" t="s">
         <v>132</v>
       </c>
@@ -50187,7 +50216,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="529" spans="5:24">
+    <row r="529" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E529" s="1" t="s">
         <v>132</v>
       </c>
@@ -50225,7 +50254,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="530" spans="5:24">
+    <row r="530" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E530" s="1" t="s">
         <v>132</v>
       </c>
@@ -50263,7 +50292,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="531" spans="5:24">
+    <row r="531" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E531" s="1" t="s">
         <v>132</v>
       </c>
@@ -50310,7 +50339,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="532" spans="5:24">
+    <row r="532" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E532" s="1" t="s">
         <v>132</v>
       </c>
@@ -50348,7 +50377,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="533" spans="5:24">
+    <row r="533" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E533" s="1" t="s">
         <v>56</v>
       </c>
@@ -50389,7 +50418,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="534" spans="5:24">
+    <row r="534" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E534" s="1" t="s">
         <v>56</v>
       </c>
@@ -50430,7 +50459,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="535" spans="5:24">
+    <row r="535" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E535" s="1" t="s">
         <v>132</v>
       </c>
@@ -50471,7 +50500,7 @@
         <v>3303</v>
       </c>
     </row>
-    <row r="536" spans="5:24">
+    <row r="536" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E536" s="1" t="s">
         <v>132</v>
       </c>
@@ -50503,7 +50532,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="537" spans="5:24">
+    <row r="537" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E537" s="1" t="s">
         <v>132</v>
       </c>
@@ -50535,7 +50564,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="538" spans="5:24">
+    <row r="538" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E538" s="1" t="s">
         <v>132</v>
       </c>
@@ -50567,7 +50596,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="539" spans="5:24">
+    <row r="539" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E539" s="1" t="s">
         <v>132</v>
       </c>
@@ -50599,7 +50628,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="540" spans="5:24">
+    <row r="540" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E540" s="1" t="s">
         <v>132</v>
       </c>
@@ -50637,7 +50666,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="541" spans="5:24">
+    <row r="541" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E541" s="1" t="s">
         <v>132</v>
       </c>
@@ -50675,7 +50704,7 @@
         <v>3319</v>
       </c>
     </row>
-    <row r="542" spans="5:24">
+    <row r="542" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E542" s="1" t="s">
         <v>132</v>
       </c>
@@ -50713,7 +50742,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="543" spans="5:24">
+    <row r="543" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E543" s="1" t="s">
         <v>132</v>
       </c>
@@ -50736,7 +50765,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="544" spans="5:24">
+    <row r="544" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E544" s="1" t="s">
         <v>132</v>
       </c>
@@ -50765,7 +50794,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="545" spans="4:24">
+    <row r="545" spans="4:24" x14ac:dyDescent="0.2">
       <c r="E545" s="1" t="s">
         <v>132</v>
       </c>
@@ -50788,7 +50817,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="546" spans="4:24">
+    <row r="546" spans="4:24" x14ac:dyDescent="0.2">
       <c r="E546" s="1" t="s">
         <v>132</v>
       </c>
@@ -50811,7 +50840,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="547" spans="4:24">
+    <row r="547" spans="4:24" x14ac:dyDescent="0.2">
       <c r="E547" s="1" t="s">
         <v>132</v>
       </c>
@@ -50831,7 +50860,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="548" spans="4:24">
+    <row r="548" spans="4:24" x14ac:dyDescent="0.2">
       <c r="E548" s="1" t="s">
         <v>132</v>
       </c>
@@ -50863,7 +50892,7 @@
         <v>3341</v>
       </c>
     </row>
-    <row r="549" spans="4:24">
+    <row r="549" spans="4:24" x14ac:dyDescent="0.2">
       <c r="F549" s="1" t="s">
         <v>3342</v>
       </c>
@@ -50895,7 +50924,7 @@
         <v>3346</v>
       </c>
     </row>
-    <row r="550" spans="4:24">
+    <row r="550" spans="4:24" x14ac:dyDescent="0.2">
       <c r="G550" s="1" t="s">
         <v>3347</v>
       </c>
@@ -50909,7 +50938,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="551" spans="4:24">
+    <row r="551" spans="4:24" x14ac:dyDescent="0.2">
       <c r="F551" s="1" t="s">
         <v>3349</v>
       </c>
@@ -50932,7 +50961,7 @@
         <v>3351</v>
       </c>
     </row>
-    <row r="552" spans="4:24">
+    <row r="552" spans="4:24" x14ac:dyDescent="0.2">
       <c r="G552" s="1" t="s">
         <v>3352</v>
       </c>
@@ -50952,7 +50981,7 @@
         <v>3351</v>
       </c>
     </row>
-    <row r="553" spans="4:24">
+    <row r="553" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D553" s="1" t="s">
         <v>3353</v>
       </c>
@@ -50984,7 +51013,7 @@
         <v>3359</v>
       </c>
     </row>
-    <row r="554" spans="4:24">
+    <row r="554" spans="4:24" x14ac:dyDescent="0.2">
       <c r="F554" s="1" t="s">
         <v>3360</v>
       </c>
@@ -51010,7 +51039,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="555" spans="4:24">
+    <row r="555" spans="4:24" x14ac:dyDescent="0.2">
       <c r="G555" s="1" t="s">
         <v>543</v>
       </c>
@@ -51030,7 +51059,7 @@
         <v>3362</v>
       </c>
     </row>
-    <row r="556" spans="4:24">
+    <row r="556" spans="4:24" x14ac:dyDescent="0.2">
       <c r="E556" s="1" t="s">
         <v>132</v>
       </c>
@@ -51062,7 +51091,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="557" spans="4:24">
+    <row r="557" spans="4:24" x14ac:dyDescent="0.2">
       <c r="E557" s="1" t="s">
         <v>1316</v>
       </c>
@@ -51082,7 +51111,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="558" spans="4:24">
+    <row r="558" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D558" s="1" t="s">
         <v>3370</v>
       </c>
@@ -51108,7 +51137,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="559" spans="4:24">
+    <row r="559" spans="4:24" x14ac:dyDescent="0.2">
       <c r="F559" s="1" t="s">
         <v>3375</v>
       </c>
@@ -51128,7 +51157,7 @@
         <v>3378</v>
       </c>
     </row>
-    <row r="560" spans="4:24">
+    <row r="560" spans="4:24" x14ac:dyDescent="0.2">
       <c r="E560" s="1" t="s">
         <v>132</v>
       </c>
@@ -51148,7 +51177,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="561" spans="4:22">
+    <row r="561" spans="4:22" x14ac:dyDescent="0.2">
       <c r="E561" s="1" t="s">
         <v>3381</v>
       </c>
@@ -51171,7 +51200,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="562" spans="4:22" ht="15" customHeight="1">
+    <row r="562" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D562" s="1" t="s">
         <v>3384</v>
       </c>
@@ -51197,7 +51226,7 @@
         <v>3388</v>
       </c>
     </row>
-    <row r="563" spans="4:22" ht="15.75">
+    <row r="563" spans="4:22" ht="16" x14ac:dyDescent="0.2">
       <c r="E563" s="1" t="s">
         <v>132</v>
       </c>
@@ -51217,7 +51246,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="564" spans="4:22" ht="15.75">
+    <row r="564" spans="4:22" ht="16" x14ac:dyDescent="0.2">
       <c r="E564" s="1" t="s">
         <v>132</v>
       </c>
@@ -51237,7 +51266,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="565" spans="4:22" ht="15.75">
+    <row r="565" spans="4:22" ht="16" x14ac:dyDescent="0.2">
       <c r="E565" s="1" t="s">
         <v>132</v>
       </c>
@@ -51257,7 +51286,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="566" spans="4:22" ht="15.75">
+    <row r="566" spans="4:22" ht="16" x14ac:dyDescent="0.2">
       <c r="E566" s="1" t="s">
         <v>132</v>
       </c>
@@ -51283,7 +51312,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="567" spans="4:22" ht="15.75">
+    <row r="567" spans="4:22" ht="16" x14ac:dyDescent="0.2">
       <c r="E567" s="1" t="s">
         <v>132</v>
       </c>
@@ -51303,7 +51332,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="568" spans="4:22" ht="15.75">
+    <row r="568" spans="4:22" ht="16" x14ac:dyDescent="0.2">
       <c r="E568" s="1" t="s">
         <v>132</v>
       </c>
@@ -51323,7 +51352,7 @@
         <v>3398</v>
       </c>
     </row>
-    <row r="569" spans="4:22" ht="15.75">
+    <row r="569" spans="4:22" ht="16" x14ac:dyDescent="0.2">
       <c r="E569" s="1" t="s">
         <v>132</v>
       </c>
@@ -51343,7 +51372,7 @@
         <v>3401</v>
       </c>
     </row>
-    <row r="570" spans="4:22" ht="15.75">
+    <row r="570" spans="4:22" ht="16" x14ac:dyDescent="0.2">
       <c r="E570" s="1" t="s">
         <v>132</v>
       </c>
@@ -51366,7 +51395,7 @@
         <v>3404</v>
       </c>
     </row>
-    <row r="571" spans="4:22" ht="15.75">
+    <row r="571" spans="4:22" ht="16" x14ac:dyDescent="0.2">
       <c r="E571" s="1" t="s">
         <v>132</v>
       </c>
@@ -51389,7 +51418,7 @@
         <v>3406</v>
       </c>
     </row>
-    <row r="572" spans="4:22" ht="15.75">
+    <row r="572" spans="4:22" ht="16" x14ac:dyDescent="0.2">
       <c r="E572" s="1" t="s">
         <v>132</v>
       </c>
@@ -51409,7 +51438,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="573" spans="4:22" ht="15.75">
+    <row r="573" spans="4:22" ht="16" x14ac:dyDescent="0.2">
       <c r="E573" s="1" t="s">
         <v>132</v>
       </c>
@@ -51435,7 +51464,7 @@
         <v>3411</v>
       </c>
     </row>
-    <row r="574" spans="4:22" ht="15.75">
+    <row r="574" spans="4:22" ht="16" x14ac:dyDescent="0.2">
       <c r="E574" s="1" t="s">
         <v>132</v>
       </c>
@@ -51461,7 +51490,7 @@
         <v>3415</v>
       </c>
     </row>
-    <row r="575" spans="4:22" ht="15.75">
+    <row r="575" spans="4:22" ht="16" x14ac:dyDescent="0.2">
       <c r="E575" s="1" t="s">
         <v>132</v>
       </c>
@@ -51487,7 +51516,7 @@
         <v>3415</v>
       </c>
     </row>
-    <row r="576" spans="4:22" ht="15.75">
+    <row r="576" spans="4:22" ht="16" x14ac:dyDescent="0.2">
       <c r="E576" s="1" t="s">
         <v>132</v>
       </c>
@@ -51513,7 +51542,7 @@
         <v>3415</v>
       </c>
     </row>
-    <row r="577" spans="4:21" ht="15.75">
+    <row r="577" spans="4:21" ht="16" x14ac:dyDescent="0.2">
       <c r="E577" s="1" t="s">
         <v>132</v>
       </c>
@@ -51539,7 +51568,7 @@
         <v>3415</v>
       </c>
     </row>
-    <row r="578" spans="4:21" ht="15.75">
+    <row r="578" spans="4:21" ht="16" x14ac:dyDescent="0.2">
       <c r="E578" s="1" t="s">
         <v>132</v>
       </c>
@@ -51565,7 +51594,7 @@
         <v>3415</v>
       </c>
     </row>
-    <row r="579" spans="4:21" ht="15.75">
+    <row r="579" spans="4:21" ht="16" x14ac:dyDescent="0.2">
       <c r="E579" s="1" t="s">
         <v>132</v>
       </c>
@@ -51591,7 +51620,7 @@
         <v>3415</v>
       </c>
     </row>
-    <row r="580" spans="4:21" ht="15.75">
+    <row r="580" spans="4:21" ht="16" x14ac:dyDescent="0.2">
       <c r="E580" s="1" t="s">
         <v>132</v>
       </c>
@@ -51617,7 +51646,7 @@
         <v>3415</v>
       </c>
     </row>
-    <row r="581" spans="4:21" ht="15.75">
+    <row r="581" spans="4:21" ht="16" x14ac:dyDescent="0.2">
       <c r="G581" s="1" t="s">
         <v>3423</v>
       </c>
@@ -51634,7 +51663,7 @@
         <v>3414</v>
       </c>
     </row>
-    <row r="582" spans="4:21" ht="15.75">
+    <row r="582" spans="4:21" ht="16" x14ac:dyDescent="0.2">
       <c r="G582" s="1" t="s">
         <v>3425</v>
       </c>
@@ -51651,7 +51680,7 @@
         <v>3414</v>
       </c>
     </row>
-    <row r="583" spans="4:21" ht="15.75">
+    <row r="583" spans="4:21" ht="16" x14ac:dyDescent="0.2">
       <c r="G583" s="1" t="s">
         <v>1498</v>
       </c>
@@ -51668,7 +51697,7 @@
         <v>3414</v>
       </c>
     </row>
-    <row r="584" spans="4:21" ht="15.75">
+    <row r="584" spans="4:21" ht="16" x14ac:dyDescent="0.2">
       <c r="G584" s="1" t="s">
         <v>3426</v>
       </c>
@@ -51685,7 +51714,7 @@
         <v>3414</v>
       </c>
     </row>
-    <row r="585" spans="4:21" ht="15.75">
+    <row r="585" spans="4:21" ht="16" x14ac:dyDescent="0.2">
       <c r="D585" s="1" t="s">
         <v>3427</v>
       </c>
@@ -51705,7 +51734,7 @@
         <v>3414</v>
       </c>
     </row>
-    <row r="586" spans="4:21" ht="15.75">
+    <row r="586" spans="4:21" ht="16" x14ac:dyDescent="0.2">
       <c r="D586" s="1" t="s">
         <v>3429</v>
       </c>
@@ -51725,7 +51754,7 @@
         <v>3414</v>
       </c>
     </row>
-    <row r="587" spans="4:21" ht="15.75">
+    <row r="587" spans="4:21" ht="16" x14ac:dyDescent="0.2">
       <c r="E587" s="1" t="s">
         <v>1316</v>
       </c>
@@ -51745,7 +51774,7 @@
         <v>3414</v>
       </c>
     </row>
-    <row r="588" spans="4:21" ht="15.75">
+    <row r="588" spans="4:21" ht="16" x14ac:dyDescent="0.2">
       <c r="E588" s="1" t="s">
         <v>1316</v>
       </c>
@@ -51765,7 +51794,7 @@
         <v>3414</v>
       </c>
     </row>
-    <row r="589" spans="4:21" ht="15.75">
+    <row r="589" spans="4:21" ht="16" x14ac:dyDescent="0.2">
       <c r="E589" s="1" t="s">
         <v>1316</v>
       </c>
@@ -51785,7 +51814,7 @@
         <v>3414</v>
       </c>
     </row>
-    <row r="590" spans="4:21" ht="15.75">
+    <row r="590" spans="4:21" ht="16" x14ac:dyDescent="0.2">
       <c r="E590" s="1" t="s">
         <v>1316</v>
       </c>
@@ -51805,7 +51834,7 @@
         <v>3414</v>
       </c>
     </row>
-    <row r="591" spans="4:21" ht="15.75">
+    <row r="591" spans="4:21" ht="16" x14ac:dyDescent="0.2">
       <c r="E591" s="1" t="s">
         <v>230</v>
       </c>
@@ -51825,7 +51854,7 @@
         <v>3414</v>
       </c>
     </row>
-    <row r="592" spans="4:21" ht="15.75">
+    <row r="592" spans="4:21" ht="16" x14ac:dyDescent="0.2">
       <c r="E592" s="1" t="s">
         <v>267</v>
       </c>
@@ -51851,7 +51880,7 @@
         <v>3441</v>
       </c>
     </row>
-    <row r="593" spans="4:24">
+    <row r="593" spans="4:24" x14ac:dyDescent="0.2">
       <c r="E593" s="1" t="s">
         <v>132</v>
       </c>
@@ -51889,7 +51918,7 @@
         <v>3447</v>
       </c>
     </row>
-    <row r="594" spans="4:24">
+    <row r="594" spans="4:24" x14ac:dyDescent="0.2">
       <c r="E594" s="1" t="s">
         <v>94</v>
       </c>
@@ -51912,7 +51941,7 @@
         <v>3449</v>
       </c>
     </row>
-    <row r="595" spans="4:24">
+    <row r="595" spans="4:24" x14ac:dyDescent="0.2">
       <c r="F595" s="1" t="s">
         <v>3450</v>
       </c>
@@ -51938,7 +51967,7 @@
         <v>3454</v>
       </c>
     </row>
-    <row r="596" spans="4:24">
+    <row r="596" spans="4:24" x14ac:dyDescent="0.2">
       <c r="E596" s="1" t="s">
         <v>541</v>
       </c>
@@ -51979,7 +52008,7 @@
         <v>3460</v>
       </c>
     </row>
-    <row r="597" spans="4:24">
+    <row r="597" spans="4:24" x14ac:dyDescent="0.2">
       <c r="E597" s="1" t="s">
         <v>132</v>
       </c>
@@ -52017,7 +52046,7 @@
         <v>3465</v>
       </c>
     </row>
-    <row r="598" spans="4:24">
+    <row r="598" spans="4:24" x14ac:dyDescent="0.2">
       <c r="E598" s="1" t="s">
         <v>487</v>
       </c>
@@ -52049,7 +52078,7 @@
         <v>3465</v>
       </c>
     </row>
-    <row r="599" spans="4:24">
+    <row r="599" spans="4:24" x14ac:dyDescent="0.2">
       <c r="E599" s="1" t="s">
         <v>132</v>
       </c>
@@ -52084,7 +52113,7 @@
         <v>3474</v>
       </c>
     </row>
-    <row r="600" spans="4:24">
+    <row r="600" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D600" s="1" t="s">
         <v>3475</v>
       </c>
@@ -52119,7 +52148,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="601" spans="4:24">
+    <row r="601" spans="4:24" x14ac:dyDescent="0.2">
       <c r="G601" s="1" t="s">
         <v>3481</v>
       </c>
@@ -52139,7 +52168,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="602" spans="4:24">
+    <row r="602" spans="4:24" x14ac:dyDescent="0.2">
       <c r="E602" s="1" t="s">
         <v>132</v>
       </c>
@@ -52183,7 +52212,7 @@
         <v>3486</v>
       </c>
     </row>
-    <row r="603" spans="4:24">
+    <row r="603" spans="4:24" x14ac:dyDescent="0.2">
       <c r="E603" s="1" t="s">
         <v>132</v>
       </c>
@@ -52209,7 +52238,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="604" spans="4:24">
+    <row r="604" spans="4:24" x14ac:dyDescent="0.2">
       <c r="E604" s="1" t="s">
         <v>132</v>
       </c>
@@ -52232,7 +52261,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="605" spans="4:24">
+    <row r="605" spans="4:24" x14ac:dyDescent="0.2">
       <c r="E605" s="1" t="s">
         <v>132</v>
       </c>
@@ -52258,7 +52287,7 @@
         <v>3492</v>
       </c>
     </row>
-    <row r="606" spans="4:24">
+    <row r="606" spans="4:24" x14ac:dyDescent="0.2">
       <c r="E606" s="1" t="s">
         <v>132</v>
       </c>
@@ -52287,7 +52316,7 @@
         <v>3496</v>
       </c>
     </row>
-    <row r="607" spans="4:24">
+    <row r="607" spans="4:24" x14ac:dyDescent="0.2">
       <c r="E607" s="1" t="s">
         <v>132</v>
       </c>
@@ -52310,7 +52339,7 @@
         <v>3499</v>
       </c>
     </row>
-    <row r="608" spans="4:24">
+    <row r="608" spans="4:24" x14ac:dyDescent="0.2">
       <c r="E608" s="1" t="s">
         <v>144</v>
       </c>
@@ -52342,7 +52371,7 @@
         <v>3504</v>
       </c>
     </row>
-    <row r="609" spans="4:30">
+    <row r="609" spans="4:30" x14ac:dyDescent="0.2">
       <c r="E609" s="1" t="s">
         <v>132</v>
       </c>
@@ -52365,7 +52394,7 @@
         <v>3506</v>
       </c>
     </row>
-    <row r="610" spans="4:30">
+    <row r="610" spans="4:30" x14ac:dyDescent="0.2">
       <c r="E610" s="1" t="s">
         <v>132</v>
       </c>
@@ -52388,7 +52417,7 @@
         <v>3506</v>
       </c>
     </row>
-    <row r="611" spans="4:30">
+    <row r="611" spans="4:30" x14ac:dyDescent="0.2">
       <c r="E611" s="1" t="s">
         <v>132</v>
       </c>
@@ -52414,7 +52443,7 @@
         <v>3506</v>
       </c>
     </row>
-    <row r="612" spans="4:30">
+    <row r="612" spans="4:30" x14ac:dyDescent="0.2">
       <c r="E612" s="1" t="s">
         <v>132</v>
       </c>
@@ -52440,7 +52469,7 @@
         <v>3512</v>
       </c>
     </row>
-    <row r="613" spans="4:30">
+    <row r="613" spans="4:30" x14ac:dyDescent="0.2">
       <c r="E613" s="1" t="s">
         <v>132</v>
       </c>
@@ -52487,7 +52516,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="614" spans="4:30">
+    <row r="614" spans="4:30" x14ac:dyDescent="0.2">
       <c r="E614" s="1" t="s">
         <v>663</v>
       </c>
@@ -52513,7 +52542,7 @@
         <v>3517</v>
       </c>
     </row>
-    <row r="615" spans="4:30">
+    <row r="615" spans="4:30" x14ac:dyDescent="0.2">
       <c r="E615" s="1" t="s">
         <v>94</v>
       </c>
@@ -52545,7 +52574,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="616" spans="4:30">
+    <row r="616" spans="4:30" x14ac:dyDescent="0.2">
       <c r="E616" s="1" t="s">
         <v>3521</v>
       </c>
@@ -52571,7 +52600,7 @@
         <v>3517</v>
       </c>
     </row>
-    <row r="617" spans="4:30">
+    <row r="617" spans="4:30" x14ac:dyDescent="0.2">
       <c r="E617" s="1" t="s">
         <v>132</v>
       </c>
@@ -52594,7 +52623,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="618" spans="4:30">
+    <row r="618" spans="4:30" x14ac:dyDescent="0.2">
       <c r="E618" s="1" t="s">
         <v>132</v>
       </c>
@@ -52614,7 +52643,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="619" spans="4:30">
+    <row r="619" spans="4:30" x14ac:dyDescent="0.2">
       <c r="E619" s="1" t="s">
         <v>132</v>
       </c>
@@ -52637,7 +52666,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="620" spans="4:30">
+    <row r="620" spans="4:30" x14ac:dyDescent="0.2">
       <c r="E620" s="1" t="s">
         <v>132</v>
       </c>
@@ -52675,7 +52704,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="621" spans="4:30">
+    <row r="621" spans="4:30" x14ac:dyDescent="0.2">
       <c r="E621" s="1" t="s">
         <v>132</v>
       </c>
@@ -52716,7 +52745,7 @@
         <v>3537</v>
       </c>
     </row>
-    <row r="622" spans="4:30">
+    <row r="622" spans="4:30" x14ac:dyDescent="0.2">
       <c r="D622" s="1" t="s">
         <v>3538</v>
       </c>
@@ -52739,7 +52768,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="623" spans="4:30">
+    <row r="623" spans="4:30" x14ac:dyDescent="0.2">
       <c r="E623" s="1" t="s">
         <v>132</v>
       </c>
@@ -52762,7 +52791,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="624" spans="4:30">
+    <row r="624" spans="4:30" x14ac:dyDescent="0.2">
       <c r="E624" s="1" t="s">
         <v>132</v>
       </c>
@@ -52785,7 +52814,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="625" spans="4:21">
+    <row r="625" spans="4:21" x14ac:dyDescent="0.2">
       <c r="E625" s="1" t="s">
         <v>132</v>
       </c>
@@ -52808,7 +52837,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="626" spans="4:21">
+    <row r="626" spans="4:21" x14ac:dyDescent="0.2">
       <c r="E626" s="1" t="s">
         <v>132</v>
       </c>
@@ -52837,7 +52866,7 @@
         <v>3547</v>
       </c>
     </row>
-    <row r="627" spans="4:21">
+    <row r="627" spans="4:21" x14ac:dyDescent="0.2">
       <c r="E627" s="1" t="s">
         <v>132</v>
       </c>
@@ -52860,7 +52889,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="628" spans="4:21">
+    <row r="628" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D628" s="1" t="s">
         <v>3549</v>
       </c>
@@ -52889,7 +52918,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="629" spans="4:21">
+    <row r="629" spans="4:21" x14ac:dyDescent="0.2">
       <c r="E629" s="1" t="s">
         <v>132</v>
       </c>
@@ -52924,7 +52953,7 @@
         <v>3556</v>
       </c>
     </row>
-    <row r="630" spans="4:21">
+    <row r="630" spans="4:21" x14ac:dyDescent="0.2">
       <c r="E630" s="1" t="s">
         <v>132</v>
       </c>
@@ -52944,7 +52973,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="631" spans="4:21">
+    <row r="631" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D631" t="s">
         <v>3558</v>
       </c>
@@ -52970,7 +52999,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="632" spans="4:21">
+    <row r="632" spans="4:21" x14ac:dyDescent="0.2">
       <c r="E632" s="1" t="s">
         <v>132</v>
       </c>
@@ -52993,7 +53022,7 @@
         <v>3564</v>
       </c>
     </row>
-    <row r="633" spans="4:21">
+    <row r="633" spans="4:21" x14ac:dyDescent="0.2">
       <c r="E633" s="1" t="s">
         <v>132</v>
       </c>
@@ -53028,7 +53057,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="634" spans="4:21">
+    <row r="634" spans="4:21" x14ac:dyDescent="0.2">
       <c r="E634" s="1" t="s">
         <v>132</v>
       </c>
@@ -53063,7 +53092,7 @@
         <v>3569</v>
       </c>
     </row>
-    <row r="635" spans="4:21">
+    <row r="635" spans="4:21" x14ac:dyDescent="0.2">
       <c r="E635" s="1" t="s">
         <v>132</v>
       </c>
@@ -53098,7 +53127,7 @@
         <v>3569</v>
       </c>
     </row>
-    <row r="636" spans="4:21">
+    <row r="636" spans="4:21" x14ac:dyDescent="0.2">
       <c r="E636" s="1" t="s">
         <v>132</v>
       </c>
@@ -53130,7 +53159,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="637" spans="4:21">
+    <row r="637" spans="4:21" x14ac:dyDescent="0.2">
       <c r="E637" s="1" t="s">
         <v>2094</v>
       </c>
@@ -53159,7 +53188,7 @@
         <v>3578</v>
       </c>
     </row>
-    <row r="638" spans="4:21">
+    <row r="638" spans="4:21" x14ac:dyDescent="0.2">
       <c r="E638" s="1" t="s">
         <v>132</v>
       </c>
@@ -53197,7 +53226,7 @@
         <v>3585</v>
       </c>
     </row>
-    <row r="639" spans="4:21">
+    <row r="639" spans="4:21" x14ac:dyDescent="0.2">
       <c r="E639" s="1" t="s">
         <v>132</v>
       </c>
@@ -53232,7 +53261,7 @@
         <v>3585</v>
       </c>
     </row>
-    <row r="640" spans="4:21">
+    <row r="640" spans="4:21" x14ac:dyDescent="0.2">
       <c r="E640" s="1" t="s">
         <v>254</v>
       </c>
@@ -53255,7 +53284,7 @@
         <v>3590</v>
       </c>
     </row>
-    <row r="641" spans="1:24">
+    <row r="641" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E641" s="1" t="s">
         <v>132</v>
       </c>
@@ -53293,7 +53322,7 @@
         <v>3594</v>
       </c>
     </row>
-    <row r="642" spans="1:24">
+    <row r="642" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E642" s="1" t="s">
         <v>132</v>
       </c>
@@ -53316,7 +53345,7 @@
         <v>3596</v>
       </c>
     </row>
-    <row r="643" spans="1:24">
+    <row r="643" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E643" s="1" t="s">
         <v>132</v>
       </c>
@@ -53339,7 +53368,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="644" spans="1:24">
+    <row r="644" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E644" s="1" t="s">
         <v>132</v>
       </c>
@@ -53371,7 +53400,7 @@
         <v>3601</v>
       </c>
     </row>
-    <row r="645" spans="1:24">
+    <row r="645" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E645" s="1" t="s">
         <v>132</v>
       </c>
@@ -53403,7 +53432,7 @@
         <v>3605</v>
       </c>
     </row>
-    <row r="646" spans="1:24">
+    <row r="646" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E646" s="1" t="s">
         <v>132</v>
       </c>
@@ -53429,7 +53458,7 @@
         <v>3609</v>
       </c>
     </row>
-    <row r="647" spans="1:24">
+    <row r="647" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E647" s="1" t="s">
         <v>311</v>
       </c>
@@ -53461,7 +53490,7 @@
         <v>3611</v>
       </c>
     </row>
-    <row r="648" spans="1:24">
+    <row r="648" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E648" s="1" t="s">
         <v>311</v>
       </c>
@@ -53490,7 +53519,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="649" spans="1:24">
+    <row r="649" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E649" s="1" t="s">
         <v>245</v>
       </c>
@@ -53519,7 +53548,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="650" spans="1:24">
+    <row r="650" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E650" s="1" t="s">
         <v>245</v>
       </c>
@@ -53548,7 +53577,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="651" spans="1:24">
+    <row r="651" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E651" s="1" t="s">
         <v>245</v>
       </c>
@@ -53577,7 +53606,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="652" spans="1:24">
+    <row r="652" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E652" s="1" t="s">
         <v>1714</v>
       </c>
@@ -53606,7 +53635,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="653" spans="1:24">
+    <row r="653" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E653" s="1" t="s">
         <v>267</v>
       </c>
@@ -53635,7 +53664,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="654" spans="1:24">
+    <row r="654" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E654" s="1" t="s">
         <v>267</v>
       </c>
@@ -53664,7 +53693,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="655" spans="1:24">
+    <row r="655" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E655" s="1" t="s">
         <v>1185</v>
       </c>
@@ -53696,7 +53725,7 @@
         <v>3611</v>
       </c>
     </row>
-    <row r="656" spans="1:24" ht="15.75">
+    <row r="656" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A656" s="9"/>
       <c r="B656" s="9"/>
       <c r="C656" s="9"/>
@@ -53732,7 +53761,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="657" spans="1:21" ht="15.75">
+    <row r="657" spans="1:21" ht="18" x14ac:dyDescent="0.2">
       <c r="A657" s="9"/>
       <c r="B657" s="9"/>
       <c r="C657" s="9"/>
@@ -53768,7 +53797,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="658" spans="1:21">
+    <row r="658" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E658" s="1" t="s">
         <v>3621</v>
       </c>
@@ -53791,7 +53820,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="659" spans="1:21">
+    <row r="659" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E659" s="1" t="s">
         <v>3621</v>
       </c>
@@ -53817,7 +53846,7 @@
         <v>3627</v>
       </c>
     </row>
-    <row r="660" spans="1:21">
+    <row r="660" spans="1:21" x14ac:dyDescent="0.2">
       <c r="G660" s="10" t="s">
         <v>3628</v>
       </c>
@@ -53843,7 +53872,7 @@
         <v>3627</v>
       </c>
     </row>
-    <row r="661" spans="1:21">
+    <row r="661" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A661" s="1" t="s">
         <v>3643</v>
       </c>
@@ -53888,7 +53917,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -53902,7 +53931,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
